--- a/meter_master_data.xlsx
+++ b/meter_master_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\Python Projects\metering_data_warehouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POSOCO\IT\Python Projects\wrldc_metering_warehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D56A3B-C6EF-4EA7-AB0F-3C960E420108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527A053-4DF3-4B0E-824D-AD39D8808855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CD82F3F5-8EB5-48F3-85EC-624166977153}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>from_date</t>
+    <t>from_time</t>
   </si>
 </sst>
 </file>
